--- a/results.xlsx
+++ b/results.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dimension_reduction" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="convolution" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2838,4 +2839,2415 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>comments_to_loc</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>comments_to_sloc</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>convention</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>errors</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>halstead_bugs</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>halstead_difficulty</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>halstead_effort</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>halstead_length</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>halstead_time</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>halstead_volume</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>max_complexity</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>multi</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>multi_and_comments_to_loc</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>number_of_methods</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pylint_score</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>refactor</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>security_high</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>security_low</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>security_medium</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>sloc</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>warnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>OpenCodeInterpreter</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.252485677546831</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.629032258064516</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3506.293038190669</v>
+      </c>
+      <c r="L2" t="n">
+        <v>124</v>
+      </c>
+      <c r="M2" t="n">
+        <v>194.7940576772594</v>
+      </c>
+      <c r="N2" t="n">
+        <v>757.457032640493</v>
+      </c>
+      <c r="O2" t="n">
+        <v>70</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>74.13217475434348</v>
+      </c>
+      <c r="S2" t="n">
+        <v>19</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6.296296296296297</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OpenCodeInterpreter</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04905374780501027</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.444444444444445</v>
+      </c>
+      <c r="K3" t="n">
+        <v>359.7274839034087</v>
+      </c>
+      <c r="L3" t="n">
+        <v>33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.98486021685603</v>
+      </c>
+      <c r="N3" t="n">
+        <v>147.1612434150308</v>
+      </c>
+      <c r="O3" t="n">
+        <v>71</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>76.70198466598227</v>
+      </c>
+      <c r="S3" t="n">
+        <v>26</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.3661971830985916</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OpenCodeInterpreter</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1037.142857142857</v>
+      </c>
+      <c r="L4" t="n">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>57.61904761904762</v>
+      </c>
+      <c r="N4" t="n">
+        <v>330</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>79.71492672105455</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6.111111111111111</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1365461847389558</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3578947368421053</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4107104136308088</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8723.48918551838</v>
+      </c>
+      <c r="L5" t="n">
+        <v>181</v>
+      </c>
+      <c r="M5" t="n">
+        <v>484.6382880843544</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1232.131240892426</v>
+      </c>
+      <c r="O5" t="n">
+        <v>249</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>58.30806693764716</v>
+      </c>
+      <c r="S5" t="n">
+        <v>65</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3975903614457831</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9.393939393939394</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>codellama</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.08221753104394951</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.810344827586207</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1186.484025582513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>47</v>
+      </c>
+      <c r="M6" t="n">
+        <v>65.91577919902848</v>
+      </c>
+      <c r="N6" t="n">
+        <v>246.6525931318485</v>
+      </c>
+      <c r="O6" t="n">
+        <v>128</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>61.92830889375418</v>
+      </c>
+      <c r="S6" t="n">
+        <v>52</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.297297297297297</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>codellama</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.157488030382448</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1785.914264536961</v>
+      </c>
+      <c r="L7" t="n">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>99.21745914094225</v>
+      </c>
+      <c r="N7" t="n">
+        <v>472.4640911473441</v>
+      </c>
+      <c r="O7" t="n">
+        <v>150</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>55.43721410742306</v>
+      </c>
+      <c r="S7" t="n">
+        <v>67</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8.095238095238095</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>codellama</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>codex</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1159948010771973</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.108108108108108</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1777.541951642456</v>
+      </c>
+      <c r="L9" t="n">
+        <v>63</v>
+      </c>
+      <c r="M9" t="n">
+        <v>98.75233064680309</v>
+      </c>
+      <c r="N9" t="n">
+        <v>347.9844032315918</v>
+      </c>
+      <c r="O9" t="n">
+        <v>64</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>76.47513987718811</v>
+      </c>
+      <c r="S9" t="n">
+        <v>17</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.076923076923077</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>codex</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1154544052957589</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.967741935483871</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1720.643072472277</v>
+      </c>
+      <c r="L10" t="n">
+        <v>66</v>
+      </c>
+      <c r="M10" t="n">
+        <v>95.59128180401541</v>
+      </c>
+      <c r="N10" t="n">
+        <v>346.3632158872766</v>
+      </c>
+      <c r="O10" t="n">
+        <v>81</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>61.93755071901066</v>
+      </c>
+      <c r="S10" t="n">
+        <v>39</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.5308641975308642</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7.307692307692308</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>codex</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1220991081900082</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.137931034482759</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1515.713067186308</v>
+      </c>
+      <c r="L11" t="n">
+        <v>72</v>
+      </c>
+      <c r="M11" t="n">
+        <v>84.20628151035046</v>
+      </c>
+      <c r="N11" t="n">
+        <v>366.2973245700245</v>
+      </c>
+      <c r="O11" t="n">
+        <v>29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>83.86035693138443</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deepseeker-coder</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K12" t="n">
+        <v>709.8000000000001</v>
+      </c>
+      <c r="L12" t="n">
+        <v>39</v>
+      </c>
+      <c r="M12" t="n">
+        <v>39.43333333333334</v>
+      </c>
+      <c r="N12" t="n">
+        <v>195</v>
+      </c>
+      <c r="O12" t="n">
+        <v>65</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>78.20144924354096</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.3230769230769231</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deepseeker-coder</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1228070175438596</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05618506523353571</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>547.8043860269731</v>
+      </c>
+      <c r="L13" t="n">
+        <v>39</v>
+      </c>
+      <c r="M13" t="n">
+        <v>30.43357700149851</v>
+      </c>
+      <c r="N13" t="n">
+        <v>168.5551957006071</v>
+      </c>
+      <c r="O13" t="n">
+        <v>57</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>75.50790643166614</v>
+      </c>
+      <c r="S13" t="n">
+        <v>18</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.4385964912280702</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7.368421052631579</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>deepseeker-coder</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1561098907833626</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.419354838709678</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3943.033693012031</v>
+      </c>
+      <c r="L14" t="n">
+        <v>88</v>
+      </c>
+      <c r="M14" t="n">
+        <v>219.0574273895573</v>
+      </c>
+      <c r="N14" t="n">
+        <v>468.3296723500879</v>
+      </c>
+      <c r="O14" t="n">
+        <v>36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>76.3460577662544</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.083333333333334</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v/>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v/>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v/>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v/>
+      </c>
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v/>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v/>
+      </c>
+      <c r="D17" t="n">
+        <v/>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v/>
+      </c>
+      <c r="M17" t="n">
+        <v/>
+      </c>
+      <c r="N17" t="n">
+        <v/>
+      </c>
+      <c r="O17" t="n">
+        <v/>
+      </c>
+      <c r="P17" t="n">
+        <v/>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v/>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v/>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>gpt35-turbo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.03658536585365853</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.05768825906469124</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.272727272727273</v>
+      </c>
+      <c r="K18" t="n">
+        <v>566.3938162715141</v>
+      </c>
+      <c r="L18" t="n">
+        <v>36</v>
+      </c>
+      <c r="M18" t="n">
+        <v>31.46632312619523</v>
+      </c>
+      <c r="N18" t="n">
+        <v>173.0647771940737</v>
+      </c>
+      <c r="O18" t="n">
+        <v>82</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>73.96934549033327</v>
+      </c>
+      <c r="S18" t="n">
+        <v>30</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.4024390243902439</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.592592592592593</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>gpt35-turbo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.09666179398375646</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.533333333333333</v>
+      </c>
+      <c r="K19" t="n">
+        <v>734.6296342765492</v>
+      </c>
+      <c r="L19" t="n">
+        <v>57</v>
+      </c>
+      <c r="M19" t="n">
+        <v>40.81275745980829</v>
+      </c>
+      <c r="N19" t="n">
+        <v>289.9853819512694</v>
+      </c>
+      <c r="O19" t="n">
+        <v>85</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>59.9808892166383</v>
+      </c>
+      <c r="S19" t="n">
+        <v>39</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>gpt35-turbo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.08744365791229632</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K20" t="n">
+        <v>755.5132043622401</v>
+      </c>
+      <c r="L20" t="n">
+        <v>54</v>
+      </c>
+      <c r="M20" t="n">
+        <v>41.97295579790223</v>
+      </c>
+      <c r="N20" t="n">
+        <v>262.330973736889</v>
+      </c>
+      <c r="O20" t="n">
+        <v>24</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>87.43699280313662</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.8333333333333339</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>gpt4-turbo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>23</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.04504504504504504</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1011166338028599</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.352941176470588</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1017.11437531112</v>
+      </c>
+      <c r="L21" t="n">
+        <v>57</v>
+      </c>
+      <c r="M21" t="n">
+        <v>56.50635418395112</v>
+      </c>
+      <c r="N21" t="n">
+        <v>303.3499014085797</v>
+      </c>
+      <c r="O21" t="n">
+        <v>111</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>66.27538982115509</v>
+      </c>
+      <c r="S21" t="n">
+        <v>45</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.4504504504504505</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>gpt4-turbo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1710131915442328</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.454545454545454</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2798.397679814718</v>
+      </c>
+      <c r="L22" t="n">
+        <v>90</v>
+      </c>
+      <c r="M22" t="n">
+        <v>155.4665377674843</v>
+      </c>
+      <c r="N22" t="n">
+        <v>513.0395746326983</v>
+      </c>
+      <c r="O22" t="n">
+        <v>86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>70.72492492719529</v>
+      </c>
+      <c r="S22" t="n">
+        <v>23</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3837209302325582</v>
+      </c>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>6.363636363636363</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>gpt4-turbo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1721922544020068</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.425</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2802.42894039266</v>
+      </c>
+      <c r="L23" t="n">
+        <v>93</v>
+      </c>
+      <c r="M23" t="n">
+        <v>155.6904966884811</v>
+      </c>
+      <c r="N23" t="n">
+        <v>516.5767632060202</v>
+      </c>
+      <c r="O23" t="n">
+        <v>33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>81.93692916138767</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.941176470588235</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>wizardcoder</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.592592592592593</v>
+      </c>
+      <c r="K24" t="n">
+        <v>544.4444444444445</v>
+      </c>
+      <c r="L24" t="n">
+        <v>42</v>
+      </c>
+      <c r="M24" t="n">
+        <v>30.24691358024691</v>
+      </c>
+      <c r="N24" t="n">
+        <v>210</v>
+      </c>
+      <c r="O24" t="n">
+        <v>50</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>72.56687370828583</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7.8125</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>wizardcoder</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1383056010054782</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.947368421052631</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1637.829485591189</v>
+      </c>
+      <c r="L25" t="n">
+        <v>76</v>
+      </c>
+      <c r="M25" t="n">
+        <v>90.99052697728828</v>
+      </c>
+      <c r="N25" t="n">
+        <v>414.9168030164346</v>
+      </c>
+      <c r="O25" t="n">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>77.26958936362946</v>
+      </c>
+      <c r="S25" t="n">
+        <v>13</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>wizardcoder</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.06243204266092216</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.117647058823529</v>
+      </c>
+      <c r="K26" t="n">
+        <v>771.2193505172737</v>
+      </c>
+      <c r="L26" t="n">
+        <v>42</v>
+      </c>
+      <c r="M26" t="n">
+        <v>42.84551947318187</v>
+      </c>
+      <c r="N26" t="n">
+        <v>187.2961279827665</v>
+      </c>
+      <c r="O26" t="n">
+        <v>38</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>74.92672027736643</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.913043478260869</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>